--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2036095.510226764</v>
+        <v>-2039009.428465693</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.0598968356705</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,55 +911,55 @@
         <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>31.0598968356705</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.79500702712463</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>49.79500702712463</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>43.85944218949135</v>
       </c>
-      <c r="C6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>36.36478049392358</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>24.91528667358037</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>36.36478049392358</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,58 +1221,58 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>84.56947841277972</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>89.71475821016372</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>33.43498149529058</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1424,13 +1424,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>211.3954436932322</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63.81442492384992</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>225.4753825493036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>161.0431395043038</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>166.4408035740313</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.2972947324001</v>
       </c>
       <c r="H14" t="n">
-        <v>288.2128112170827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17.50355668901602</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>94.95854217467223</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>201.1845237827091</v>
@@ -1701,10 +1701,10 @@
         <v>134.6653691686558</v>
       </c>
       <c r="H15" t="n">
-        <v>86.37017281540096</v>
+        <v>86.37017281540099</v>
       </c>
       <c r="I15" t="n">
-        <v>7.31421439800198</v>
+        <v>7.314214398002065</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>121.937746731295</v>
       </c>
       <c r="T15" t="n">
-        <v>189.3699128746641</v>
+        <v>189.3699128746642</v>
       </c>
       <c r="U15" t="n">
         <v>225.7651881339646</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>128.777812256304</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.2646871537214</v>
       </c>
       <c r="I16" t="n">
-        <v>87.92910319914009</v>
+        <v>87.92910319914014</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.33791841245593</v>
+        <v>76.33791841245602</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>26.25606959449648</v>
       </c>
       <c r="T16" t="n">
         <v>218.3521659965356</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947591</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188922</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
         <v>255.241665994756</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464141</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510284</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453026</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947561</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295189</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
         <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707174</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221591</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947561</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295189</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707174</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221591</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2950,25 +2950,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
@@ -3013,7 +3013,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3269,7 +3269,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684696</v>
       </c>
       <c r="E35" t="n">
         <v>350.3201677200478</v>
@@ -3317,7 +3317,7 @@
         <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645689</v>
@@ -3512,10 +3512,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894972</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247505</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684692</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947561</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295189</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442967</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221591</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>156.7444867130883</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="C5" t="n">
-        <v>125.3708535457444</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="D5" t="n">
-        <v>75.07286664965892</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="E5" t="n">
-        <v>75.07286664965892</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="F5" t="n">
-        <v>68.12736590045544</v>
+        <v>17.82937900436996</v>
       </c>
       <c r="G5" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
         <v>3.98360056216997</v>
@@ -4595,22 +4595,22 @@
         <v>156.7444867130883</v>
       </c>
       <c r="T5" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="U5" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V5" t="n">
-        <v>156.7444867130883</v>
+        <v>75.07286664965892</v>
       </c>
       <c r="W5" t="n">
-        <v>156.7444867130883</v>
+        <v>75.07286664965892</v>
       </c>
       <c r="X5" t="n">
-        <v>156.7444867130883</v>
+        <v>24.77487975357343</v>
       </c>
       <c r="Y5" t="n">
-        <v>156.7444867130883</v>
+        <v>24.77487975357343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>104.5795743543409</v>
+      </c>
+      <c r="C6" t="n">
+        <v>104.5795743543409</v>
+      </c>
+      <c r="D6" t="n">
         <v>54.28158745825545</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.98360056216997</v>
-      </c>
       <c r="E6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
         <v>3.98360056216997</v>
@@ -4653,7 +4653,7 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>148.882041212413</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="S6" t="n">
-        <v>148.882041212413</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="T6" t="n">
-        <v>148.882041212413</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="U6" t="n">
-        <v>148.882041212413</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="V6" t="n">
-        <v>148.882041212413</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="W6" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="X6" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.58405431632752</v>
+        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="7">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.3267367695141</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="C8" t="n">
-        <v>146.7257778916331</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D8" t="n">
-        <v>146.7257778916331</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E8" t="n">
         <v>146.7257778916331</v>
@@ -4796,7 +4796,7 @@
         <v>126.181111056949</v>
       </c>
       <c r="H8" t="n">
-        <v>32.58015217906794</v>
+        <v>126.181111056949</v>
       </c>
       <c r="I8" t="n">
         <v>32.58015217906794</v>
@@ -4808,7 +4808,7 @@
         <v>21.18357364821451</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M8" t="n">
         <v>166.9070065056149</v>
@@ -4832,22 +4832,22 @@
         <v>370.6597971564088</v>
       </c>
       <c r="T8" t="n">
-        <v>333.9276956473951</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U8" t="n">
-        <v>333.9276956473951</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V8" t="n">
-        <v>240.3267367695141</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W8" t="n">
-        <v>240.3267367695141</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="X8" t="n">
-        <v>240.3267367695141</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y8" t="n">
-        <v>240.3267367695141</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C9" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D9" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E9" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G9" t="n">
         <v>7.413195943128176</v>
@@ -4890,10 +4890,10 @@
         <v>102.6982772648967</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514005</v>
@@ -4905,28 +4905,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="R9" t="n">
-        <v>285.2360815879445</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S9" t="n">
-        <v>285.2360815879445</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T9" t="n">
-        <v>285.2360815879445</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U9" t="n">
-        <v>285.2360815879445</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V9" t="n">
-        <v>194.6151136988902</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W9" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X9" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="C10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="D10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="G10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="J10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="M10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="N10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="O10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.413195943128176</v>
+        <v>370.6597971564088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1292.833068744076</v>
+        <v>1605.601998493313</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.833068744076</v>
+        <v>1236.639481552901</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2795.806654315204</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.806654315204</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W11" t="n">
-        <v>2443.037999045089</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X11" t="n">
-        <v>2069.572240784009</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679.432908808198</v>
+        <v>1992.201838557434</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.6423967967188</v>
+        <v>591.781102412113</v>
       </c>
       <c r="C13" t="n">
-        <v>360.6423967967188</v>
+        <v>591.781102412113</v>
       </c>
       <c r="D13" t="n">
-        <v>360.6423967967188</v>
+        <v>591.781102412113</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143257</v>
+        <v>591.781102412113</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>444.8911549142026</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>277.1883182889216</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>130.9711315067793</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.841696875227</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W13" t="n">
-        <v>809.4245268382663</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X13" t="n">
-        <v>581.4349759402489</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.6423967967188</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1700.336103315588</v>
+        <v>2020.183824864925</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.373586375177</v>
+        <v>1651.221307924513</v>
       </c>
       <c r="D14" t="n">
-        <v>973.1078877684261</v>
+        <v>1292.955609317763</v>
       </c>
       <c r="E14" t="n">
-        <v>973.1078877684261</v>
+        <v>907.1673567195182</v>
       </c>
       <c r="F14" t="n">
-        <v>804.9858639562732</v>
+        <v>496.1814519299107</v>
       </c>
       <c r="G14" t="n">
-        <v>390.544152105364</v>
+        <v>81.73974007900155</v>
       </c>
       <c r="H14" t="n">
-        <v>99.42010037093704</v>
+        <v>81.73974007900155</v>
       </c>
       <c r="I14" t="n">
-        <v>81.73974007900166</v>
+        <v>81.73974007900155</v>
       </c>
       <c r="J14" t="n">
-        <v>323.0866869849224</v>
+        <v>323.0866869849223</v>
       </c>
       <c r="K14" t="n">
-        <v>735.5417159009721</v>
+        <v>735.5417159009709</v>
       </c>
       <c r="L14" t="n">
-        <v>1284.130412897769</v>
+        <v>1284.130412897767</v>
       </c>
       <c r="M14" t="n">
-        <v>1926.210477476442</v>
+        <v>1926.210477476438</v>
       </c>
       <c r="N14" t="n">
-        <v>2583.29387715287</v>
+        <v>2583.293877152866</v>
       </c>
       <c r="O14" t="n">
-        <v>3190.423837528341</v>
+        <v>3190.423837528337</v>
       </c>
       <c r="P14" t="n">
-        <v>3674.094211401783</v>
+        <v>3674.094211401778</v>
       </c>
       <c r="Q14" t="n">
-        <v>3989.137772637108</v>
+        <v>3989.137772637103</v>
       </c>
       <c r="R14" t="n">
-        <v>4086.987003950083</v>
+        <v>4086.987003950077</v>
       </c>
       <c r="S14" t="n">
-        <v>3991.069284581728</v>
+        <v>4086.987003950077</v>
       </c>
       <c r="T14" t="n">
-        <v>3787.852593892123</v>
+        <v>3883.770313260472</v>
       </c>
       <c r="U14" t="n">
-        <v>3534.372576230287</v>
+        <v>3630.290295598636</v>
       </c>
       <c r="V14" t="n">
-        <v>3203.309688886716</v>
+        <v>3299.227408255066</v>
       </c>
       <c r="W14" t="n">
-        <v>2850.541033616601</v>
+        <v>2946.458752984951</v>
       </c>
       <c r="X14" t="n">
-        <v>2477.075275355522</v>
+        <v>2572.992994723872</v>
       </c>
       <c r="Y14" t="n">
-        <v>2086.93594337971</v>
+        <v>2182.85366274806</v>
       </c>
     </row>
     <row r="15">
@@ -5349,37 +5349,37 @@
         <v>176.3704342339541</v>
       </c>
       <c r="H15" t="n">
-        <v>89.12783543051881</v>
+        <v>89.12783543051879</v>
       </c>
       <c r="I15" t="n">
-        <v>81.73974007900166</v>
+        <v>81.73974007900155</v>
       </c>
       <c r="J15" t="n">
-        <v>81.73974007900166</v>
+        <v>206.6664813070666</v>
       </c>
       <c r="K15" t="n">
-        <v>373.4142636012745</v>
+        <v>498.3410048293391</v>
       </c>
       <c r="L15" t="n">
-        <v>811.9291965039943</v>
+        <v>936.8559377320582</v>
       </c>
       <c r="M15" t="n">
-        <v>1343.012307960578</v>
+        <v>936.8559377320582</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.560254006047</v>
+        <v>1473.695382238461</v>
       </c>
       <c r="O15" t="n">
-        <v>2183.609885583047</v>
+        <v>1963.352641106928</v>
       </c>
       <c r="P15" t="n">
-        <v>2557.269938528209</v>
+        <v>2337.01269405209</v>
       </c>
       <c r="Q15" t="n">
-        <v>2557.269938528209</v>
+        <v>2536.875347536704</v>
       </c>
       <c r="R15" t="n">
-        <v>2557.269938528209</v>
+        <v>2557.26993852821</v>
       </c>
       <c r="S15" t="n">
         <v>2434.100497385487</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.5552947690592</v>
+        <v>611.2653071436533</v>
       </c>
       <c r="C16" t="n">
-        <v>745.5552947690592</v>
+        <v>611.2653071436533</v>
       </c>
       <c r="D16" t="n">
-        <v>595.4386553567234</v>
+        <v>461.1486677313176</v>
       </c>
       <c r="E16" t="n">
-        <v>447.5255617743303</v>
+        <v>461.1486677313176</v>
       </c>
       <c r="F16" t="n">
-        <v>300.6356142764199</v>
+        <v>314.2587202334072</v>
       </c>
       <c r="G16" t="n">
-        <v>170.557016037729</v>
+        <v>314.2587202334072</v>
       </c>
       <c r="H16" t="n">
         <v>170.557016037729</v>
       </c>
       <c r="I16" t="n">
-        <v>81.73974007900166</v>
+        <v>81.73974007900155</v>
       </c>
       <c r="J16" t="n">
-        <v>146.4672868452004</v>
+        <v>146.4672868452001</v>
       </c>
       <c r="K16" t="n">
-        <v>382.6713664123335</v>
+        <v>382.671366412333</v>
       </c>
       <c r="L16" t="n">
-        <v>740.4577006429088</v>
+        <v>740.457700642908</v>
       </c>
       <c r="M16" t="n">
-        <v>1128.08234783781</v>
+        <v>1128.082347837809</v>
       </c>
       <c r="N16" t="n">
-        <v>1511.924763727956</v>
+        <v>1511.924763727955</v>
       </c>
       <c r="O16" t="n">
-        <v>1850.449065983319</v>
+        <v>1850.449065983317</v>
       </c>
       <c r="P16" t="n">
-        <v>2116.594406214262</v>
+        <v>2116.59440621426</v>
       </c>
       <c r="Q16" t="n">
-        <v>2217.424564240858</v>
+        <v>2217.424564240856</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.315555743428</v>
+        <v>2140.315555743426</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.315555743428</v>
+        <v>2113.794273324743</v>
       </c>
       <c r="T16" t="n">
-        <v>1919.757812312584</v>
+        <v>1893.236529893899</v>
       </c>
       <c r="U16" t="n">
-        <v>1630.670377846733</v>
+        <v>1604.149095428048</v>
       </c>
       <c r="V16" t="n">
-        <v>1375.985889640846</v>
+        <v>1349.464607222161</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.985889640846</v>
+        <v>1060.047437185201</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.996338742829</v>
+        <v>832.0578862871835</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.2037595992989</v>
+        <v>611.2653071436533</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.46264111281</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497867</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216585</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.23466494381</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796708</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162871</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.9804089751163</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.9804089751163</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076841</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889758</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.06785023329</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612706</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767231</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755815</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.09100792455</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283568</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400165</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382063</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437418</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501807</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851463</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177178</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.9804089751163</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.9804089751163</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.9804089751163</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>535.363867286689</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.282331896979</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1662.137679823381</v>
+        <v>1637.372701792862</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2143.777656741112</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,61 +5647,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477723</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
         <v>386.7245456315388</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511629</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902795</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237502</v>
@@ -5716,7 +5716,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
         <v>342.800273616284</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5774,28 +5774,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755814</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.09100792455</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177178</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835861</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334507</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277783</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>2100.17100246447</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O21" t="n">
-        <v>2100.17100246447</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>2487.272558016626</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
@@ -5917,43 +5917,43 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127671</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112809</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497866</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796689</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162841</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511871</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076861</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951475</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050966</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746741</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889758</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.06785023329</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612706</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755814</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.09100792455</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437417</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501806</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851463</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334505</v>
+        <v>216.557510983586</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277778</v>
+        <v>670.3561405779135</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1219.274605188203</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.315654538067</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2303.534908062855</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q24" t="n">
         <v>2530.879212293268</v>
@@ -6121,58 +6121,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042803</v>
       </c>
       <c r="K25" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443629</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
         <v>2144.90183912767</v>
@@ -6181,13 +6181,13 @@
         <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254982</v>
@@ -6212,7 +6212,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
         <v>342.800273616284</v>
@@ -6221,25 +6221,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511689</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951456</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
@@ -6263,13 +6263,13 @@
         <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6309,13 @@
         <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>850.66941185518</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1357.07436680343</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O27" t="n">
         <v>1934.929714729833</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042817</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443644</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902818</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040896</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354976</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313939</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028691</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597208</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352545</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
         <v>2144.90183912767</v>
@@ -6418,13 +6418,13 @@
         <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254982</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P30" t="n">
         <v>2322.031270281988</v>
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443629</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357084</v>
@@ -6664,7 +6664,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796686</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076848</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>118.5947109415081</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334505</v>
+        <v>421.6357602913726</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277778</v>
+        <v>875.4343898857001</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277778</v>
+        <v>875.4343898857001</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352543</v>
@@ -6889,7 +6889,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6965,22 +6965,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L36" t="n">
-        <v>519.5985603334505</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M36" t="n">
-        <v>1068.51702494374</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.174278704279</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7117,10 +7117,10 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127669</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7187,37 +7187,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>688.8525027970467</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2322.031270281988</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C40" t="n">
         <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
@@ -7357,7 +7357,7 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127669</v>
@@ -7366,13 +7366,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7394,25 +7394,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7424,25 +7424,25 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
         <v>3496.71823738206</v>
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1059.51735386646</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.372701792862</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.777656741112</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P42" t="n">
-        <v>2530.879212293268</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042785</v>
@@ -7576,7 +7576,7 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
@@ -7585,31 +7585,31 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7634,19 +7634,19 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
         <v>766.683188695145</v>
@@ -7670,28 +7670,28 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188203</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2303.534908062855</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502079</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477695</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609023</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039776</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315358</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749415</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K46" t="n">
         <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,31 +7825,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254979</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -9565,7 +9565,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094474</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775505</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272516</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9814,7 +9814,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775508</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272672</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10048,7 +10048,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140431</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446543</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -11236,7 +11236,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.3429583777513</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>13.99090544362082</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29.4651933316725</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.69808318929952</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>321.2480601253924</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.59972826566982</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>32.53799548598817</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>26.66226077452444</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>221.6907021591767</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>240.4352421676801</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.2128112170827</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.50355668901619</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>94.95854217467233</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.9678977883419</v>
+        <v>165.7457100446459</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2646871537214</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.8876773589787</v>
+        <v>158.6316077644823</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.580122607413572e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.169020601490047e-12</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1280434.364585607</v>
+        <v>1280434.364585608</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1235820.882093794</v>
+        <v>1235820.882093793</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98494.95112196969</v>
+        <v>98494.95112196976</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,13 +26320,13 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>85249.27474273018</v>
+        <v>85249.27474273014</v>
       </c>
       <c r="F2" t="n">
-        <v>93984.01314603924</v>
+        <v>93984.01314603916</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="H2" t="n">
         <v>102630.2212330356</v>
@@ -26335,22 +26335,22 @@
         <v>102630.2212330356</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="K2" t="n">
         <v>102630.2212330356</v>
-      </c>
-      <c r="K2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,13 +26372,13 @@
         <v>65327.89037938112</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.100839935</v>
+        <v>728470.1008399351</v>
       </c>
       <c r="F3" t="n">
-        <v>177316.4781366201</v>
+        <v>177316.4781366187</v>
       </c>
       <c r="G3" t="n">
-        <v>62091.48955145392</v>
+        <v>62091.48955145432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12815.64136855704</v>
+        <v>12815.64136855703</v>
       </c>
       <c r="L3" t="n">
-        <v>36138.15843879741</v>
+        <v>36138.15843879737</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694314</v>
+        <v>184096.0922694316</v>
       </c>
       <c r="N3" t="n">
-        <v>46620.70221180312</v>
+        <v>46620.70221180265</v>
       </c>
       <c r="O3" t="n">
-        <v>9748.377631486024</v>
+        <v>9748.377631486161</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339186.3887311748</v>
+        <v>339186.3887311751</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
       </c>
       <c r="D4" t="n">
-        <v>312487.2615518148</v>
+        <v>312487.2615518149</v>
       </c>
       <c r="E4" t="n">
         <v>14649.95482218994</v>
@@ -26430,34 +26430,34 @@
         <v>14748.46361709863</v>
       </c>
       <c r="G4" t="n">
-        <v>45839.31483610843</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="H4" t="n">
-        <v>45839.31483610839</v>
+        <v>45839.31483610845</v>
       </c>
       <c r="I4" t="n">
+        <v>45839.31483610846</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45839.31483610846</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45839.31483610849</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45839.31483610849</v>
+      </c>
+      <c r="M4" t="n">
+        <v>45839.31483610845</v>
+      </c>
+      <c r="N4" t="n">
         <v>45839.31483610852</v>
       </c>
-      <c r="J4" t="n">
-        <v>45839.3148361084</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45839.31483610846</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>45839.31483610852</v>
+      </c>
+      <c r="P4" t="n">
         <v>45839.31483610848</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45839.31483610846</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45839.31483610846</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45839.31483610846</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45839.31483610836</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>89265.46731011731</v>
+        <v>89265.46731011719</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215536</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215533</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-595877.2614096089</v>
+        <v>-595959.9668118304</v>
       </c>
       <c r="C6" t="n">
         <v>-356255.7384825709</v>
@@ -26528,40 +26528,40 @@
         <v>-324422.0503639968</v>
       </c>
       <c r="E6" t="n">
-        <v>-732177.1214807881</v>
+        <v>-732524.7404105944</v>
       </c>
       <c r="F6" t="n">
-        <v>-187346.3959177968</v>
+        <v>-187519.3200795354</v>
       </c>
       <c r="G6" t="n">
-        <v>-100407.0172566823</v>
+        <v>-100407.0172566827</v>
       </c>
       <c r="H6" t="n">
-        <v>-38315.52770522806</v>
+        <v>-38315.5277052281</v>
       </c>
       <c r="I6" t="n">
-        <v>-38315.52770522825</v>
+        <v>-38315.52770522819</v>
       </c>
       <c r="J6" t="n">
-        <v>-38315.52770522797</v>
+        <v>-38315.52770522822</v>
       </c>
       <c r="K6" t="n">
-        <v>-51131.16907378528</v>
+        <v>-51131.16907378525</v>
       </c>
       <c r="L6" t="n">
-        <v>-74453.68614402571</v>
+        <v>-74453.68614402565</v>
       </c>
       <c r="M6" t="n">
-        <v>-222411.6199746597</v>
+        <v>-222411.6199746599</v>
       </c>
       <c r="N6" t="n">
-        <v>-84936.22991703145</v>
+        <v>-84936.22991703103</v>
       </c>
       <c r="O6" t="n">
-        <v>-48063.90533671423</v>
+        <v>-48063.90533671447</v>
       </c>
       <c r="P6" t="n">
-        <v>-38315.52770522816</v>
+        <v>-38315.52770522827</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
@@ -26719,13 +26719,13 @@
         <v>31.61020235221393</v>
       </c>
       <c r="N2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1245.103892205323</v>
+        <v>1245.103892205322</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620124</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="H3" t="n">
         <v>1278.159870620123</v>
@@ -26796,13 +26796,13 @@
         <v>92.6649492891022</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1021.746750987521</v>
+        <v>1021.746750987519</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188954</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>632.1853818291328</v>
       </c>
       <c r="F3" t="n">
-        <v>155.327191612025</v>
+        <v>155.3271916120239</v>
       </c>
       <c r="G3" t="n">
-        <v>33.05597841480062</v>
+        <v>33.05597841480085</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>42.86994226197757</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131907</v>
+        <v>738.7365061131909</v>
       </c>
       <c r="F4" t="n">
-        <v>190.3452955852279</v>
+        <v>190.3452955852262</v>
       </c>
       <c r="G4" t="n">
-        <v>40.50836120143288</v>
+        <v>40.50836120143344</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.79500702712437</v>
+        <v>49.79500702712471</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197803</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131904</v>
+        <v>738.7365061131909</v>
       </c>
       <c r="N4" t="n">
-        <v>190.3452955852279</v>
+        <v>190.345295585226</v>
       </c>
       <c r="O4" t="n">
-        <v>40.50836120143288</v>
+        <v>40.50836120143344</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>42.86994226197757</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131907</v>
+        <v>738.7365061131909</v>
       </c>
       <c r="N4" t="n">
-        <v>190.3452955852279</v>
+        <v>190.3452955852262</v>
       </c>
       <c r="O4" t="n">
-        <v>40.50836120143288</v>
+        <v>40.50836120143344</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0400019133721</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>159.9014836333536</v>
@@ -27415,19 +27415,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
-        <v>103.715973120204</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1266962566148</v>
+        <v>110.4286130673153</v>
       </c>
       <c r="T2" t="n">
         <v>217.3533046710778</v>
@@ -27564,10 +27564,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
         <v>37.63776203285606</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>334.2129949353371</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>304.8880345935584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>273.3407321982346</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
         <v>148.9685811771479</v>
@@ -27667,19 +27667,19 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>216.1119122710508</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6923616344644</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.9360936513444</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.673741460376</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>97.65005853751413</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>86.69488686188785</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
@@ -27740,7 +27740,7 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>42.88497470197427</v>
+        <v>48.82053953960754</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5655895783382</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>139.5561335235496</v>
+        <v>46.89118423444745</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
-        <v>178.6783816415037</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
         <v>251.1984878605957</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>84.91389631602611</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,10 +27941,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
@@ -27977,10 +27977,10 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S9" t="n">
-        <v>153.4011028494393</v>
+        <v>60.73615356033714</v>
       </c>
       <c r="T9" t="n">
         <v>196.197498299121</v>
@@ -27989,10 +27989,10 @@
         <v>225.8766285924705</v>
       </c>
       <c r="V9" t="n">
-        <v>143.0858289392615</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.3803783660548</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605735</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="32">
@@ -29989,7 +29989,7 @@
         <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="E35" t="n">
         <v>31.61020235221393</v>
@@ -30037,7 +30037,7 @@
         <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
         <v>31.61020235221393</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221321</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J2" t="n">
         <v>111.3401072796808</v>
@@ -31072,7 +31072,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S2" t="n">
         <v>29.89337332963048</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H3" t="n">
         <v>6.778799411242828</v>
@@ -31151,7 +31151,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S3" t="n">
         <v>13.03733674233122</v>
@@ -31200,7 +31200,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I4" t="n">
         <v>17.69607700863206</v>
@@ -31212,10 +31212,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M4" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N4" t="n">
         <v>90.04778243237713</v>
@@ -31373,10 +31373,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31610,13 +31610,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724355</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264121</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.005442782734964</v>
+        <v>5.00544278273496</v>
       </c>
       <c r="H14" t="n">
-        <v>51.26199089868447</v>
+        <v>51.26199089868442</v>
       </c>
       <c r="I14" t="n">
-        <v>192.9723328813899</v>
+        <v>192.9723328813897</v>
       </c>
       <c r="J14" t="n">
-        <v>424.830699381152</v>
+        <v>424.8306993811516</v>
       </c>
       <c r="K14" t="n">
-        <v>636.7110923743232</v>
+        <v>636.7110923743227</v>
       </c>
       <c r="L14" t="n">
-        <v>789.8964119364485</v>
+        <v>789.8964119364479</v>
       </c>
       <c r="M14" t="n">
-        <v>878.9119550239114</v>
+        <v>878.9119550239107</v>
       </c>
       <c r="N14" t="n">
-        <v>893.1336693303572</v>
+        <v>893.1336693303564</v>
       </c>
       <c r="O14" t="n">
-        <v>843.3607976595364</v>
+        <v>843.3607976595356</v>
       </c>
       <c r="P14" t="n">
-        <v>719.7889289607668</v>
+        <v>719.7889289607662</v>
       </c>
       <c r="Q14" t="n">
-        <v>540.5315093040707</v>
+        <v>540.5315093040703</v>
       </c>
       <c r="R14" t="n">
-        <v>314.4231452009755</v>
+        <v>314.4231452009752</v>
       </c>
       <c r="S14" t="n">
-        <v>114.0615274115731</v>
+        <v>114.061527411573</v>
       </c>
       <c r="T14" t="n">
-        <v>21.91132578142232</v>
+        <v>21.9113257814223</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4004354226187971</v>
+        <v>0.4004354226187967</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.678147994554847</v>
+        <v>2.678147994554844</v>
       </c>
       <c r="H15" t="n">
-        <v>25.86527142109549</v>
+        <v>25.86527142109547</v>
       </c>
       <c r="I15" t="n">
-        <v>92.20816560199802</v>
+        <v>92.20816560199793</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>253.0262541697627</v>
       </c>
       <c r="K15" t="n">
-        <v>432.4621698049377</v>
+        <v>432.4621698049373</v>
       </c>
       <c r="L15" t="n">
-        <v>581.4987564492881</v>
+        <v>581.4987564492875</v>
       </c>
       <c r="M15" t="n">
-        <v>678.5816212519011</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>696.5416575838063</v>
+        <v>673.6037772413156</v>
       </c>
       <c r="O15" t="n">
-        <v>426.4847611888893</v>
+        <v>637.1995362307746</v>
       </c>
       <c r="P15" t="n">
-        <v>511.4088043286356</v>
+        <v>511.4088043286351</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>341.8632422522991</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>166.2801009250806</v>
       </c>
       <c r="S15" t="n">
-        <v>49.74542437254284</v>
+        <v>49.74542437254279</v>
       </c>
       <c r="T15" t="n">
-        <v>10.79481582015747</v>
+        <v>10.79481582015746</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1761939470101873</v>
+        <v>0.1761939470101872</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.245269313812878</v>
+        <v>2.245269313812876</v>
       </c>
       <c r="H16" t="n">
-        <v>19.96248535371815</v>
+        <v>19.96248535371813</v>
       </c>
       <c r="I16" t="n">
-        <v>67.5213717281182</v>
+        <v>67.52137172811814</v>
       </c>
       <c r="J16" t="n">
-        <v>158.7405404865705</v>
+        <v>158.7405404865703</v>
       </c>
       <c r="K16" t="n">
-        <v>260.8594711866234</v>
+        <v>260.8594711866231</v>
       </c>
       <c r="L16" t="n">
-        <v>333.8103123463255</v>
+        <v>333.8103123463252</v>
       </c>
       <c r="M16" t="n">
-        <v>351.9561707097768</v>
+        <v>351.9561707097765</v>
       </c>
       <c r="N16" t="n">
-        <v>343.58743963102</v>
+        <v>343.5874396310197</v>
       </c>
       <c r="O16" t="n">
-        <v>317.3586117378422</v>
+        <v>317.3586117378418</v>
       </c>
       <c r="P16" t="n">
-        <v>271.5551177360592</v>
+        <v>271.555117736059</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.0106877230038</v>
+        <v>188.0106877230036</v>
       </c>
       <c r="R16" t="n">
-        <v>100.9554729647136</v>
+        <v>100.9554729647135</v>
       </c>
       <c r="S16" t="n">
-        <v>39.12892067799351</v>
+        <v>39.12892067799347</v>
       </c>
       <c r="T16" t="n">
-        <v>9.593423431745929</v>
+        <v>9.593423431745922</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1224692352988844</v>
+        <v>0.1224692352988843</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171348</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879734</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043511</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383709</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171642</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869758</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654304</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117599</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565685</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829632</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972016</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581563</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734509</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537078</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031965</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533503</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781108</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>593.48716595318</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879674</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160635</v>
+        <v>247.5609517346415</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578289</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892355</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426487001</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047346</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216617</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051428</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838148</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151669</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.672565969205</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754556</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696485</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246179</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381987</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636387</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227502</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925542</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118156</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879732</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565681</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155586</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879672</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160633</v>
+        <v>573.1387203886723</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892353</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>184.0288996179832</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877215</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
         <v>0.1808716798047345</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,19 +32634,19 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636386</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227501</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32789,7 +32789,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
@@ -32798,16 +32798,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>559.3781234260257</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>363.6151187581817</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>170.6946332877214</v>
@@ -33029,16 +33029,16 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
-        <v>472.9693813169747</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>529.6867378368186</v>
       </c>
       <c r="N27" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
@@ -33263,7 +33263,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
@@ -33275,10 +33275,10 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>281.7879228436643</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>358.0756880380867</v>
       </c>
       <c r="Q30" t="n">
         <v>350.9392912691327</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115856</v>
+        <v>160.7914670367595</v>
       </c>
       <c r="K33" t="n">
         <v>443.9435090247271</v>
@@ -33509,7 +33509,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>591.0665301174793</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578284</v>
@@ -33521,7 +33521,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33734,31 +33734,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>494.9858886872148</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>524.6188180368777</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>350.9392912691327</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33977,7 +33977,7 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>309.517958025931</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
         <v>696.597129487967</v>
@@ -33986,16 +33986,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34129,7 +34129,7 @@
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383703</v>
       </c>
       <c r="K41" t="n">
         <v>653.6149895171637</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
         <v>443.9435090247271</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>362.0302621514645</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>391.7126543919586</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34384,13 +34384,13 @@
         <v>865.7509905565679</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972012</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581578</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34460,16 +34460,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
-        <v>363.6151187581817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -35021,10 +35021,10 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
+        <v>21.75745062690899</v>
+      </c>
+      <c r="N6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35258,13 +35258,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M9" t="n">
-        <v>32.44591292034803</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N9" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="O9" t="n">
-        <v>91.5825882819677</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920032</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>243.7847948544658</v>
+        <v>243.7847948544654</v>
       </c>
       <c r="K14" t="n">
-        <v>416.6212413293427</v>
+        <v>416.6212413293421</v>
       </c>
       <c r="L14" t="n">
-        <v>554.1299969664612</v>
+        <v>554.1299969664606</v>
       </c>
       <c r="M14" t="n">
-        <v>648.5657217966387</v>
+        <v>648.5657217966379</v>
       </c>
       <c r="N14" t="n">
-        <v>663.7206057337662</v>
+        <v>663.7206057337655</v>
       </c>
       <c r="O14" t="n">
-        <v>613.2625862378496</v>
+        <v>613.2625862378488</v>
       </c>
       <c r="P14" t="n">
-        <v>488.5559332054973</v>
+        <v>488.5559332054966</v>
       </c>
       <c r="Q14" t="n">
-        <v>318.2258194296212</v>
+        <v>318.2258194296207</v>
       </c>
       <c r="R14" t="n">
-        <v>98.83760738684333</v>
+        <v>98.83760738684305</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.188627503096</v>
       </c>
       <c r="K15" t="n">
-        <v>294.6207308305787</v>
+        <v>294.6207308305783</v>
       </c>
       <c r="L15" t="n">
-        <v>442.9443766694139</v>
+        <v>442.9443766694133</v>
       </c>
       <c r="M15" t="n">
-        <v>536.4475873298827</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>565.1999455004731</v>
+        <v>542.2620651579823</v>
       </c>
       <c r="O15" t="n">
-        <v>283.8885167444448</v>
+        <v>494.6032917863301</v>
       </c>
       <c r="P15" t="n">
-        <v>377.4343969143054</v>
+        <v>377.4343969143048</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.8814681662776</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.60059696111668</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.38136036989769</v>
+        <v>65.38136036989752</v>
       </c>
       <c r="K16" t="n">
-        <v>238.5899793607406</v>
+        <v>238.5899793607403</v>
       </c>
       <c r="L16" t="n">
-        <v>361.4003376066416</v>
+        <v>361.4003376066414</v>
       </c>
       <c r="M16" t="n">
-        <v>391.5400476716174</v>
+        <v>391.5400476716171</v>
       </c>
       <c r="N16" t="n">
-        <v>387.7196120102486</v>
+        <v>387.7196120102483</v>
       </c>
       <c r="O16" t="n">
-        <v>341.9437396518819</v>
+        <v>341.9437396518815</v>
       </c>
       <c r="P16" t="n">
-        <v>268.8336770009527</v>
+        <v>268.8336770009525</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.8486444713094</v>
+        <v>101.8486444713092</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116846</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721836</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169885</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381577</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348817</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276936</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227521</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440242</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>454.9327861733058</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659491</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327302</v>
+        <v>116.2192396513083</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133844</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749052</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356844</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.69227063273</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749051</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.04712553196169</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375752</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895116</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010907</v>
@@ -36294,10 +36294,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641616</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
@@ -36446,16 +36446,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>416.7818789815813</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>229.6407113438515</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>25.01512932375746</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193576</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817348</v>
@@ -36525,16 +36525,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641616</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
-        <v>334.4150015371005</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>387.5527039148003</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193591</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817348</v>
@@ -36762,16 +36762,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553079</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q29" t="n">
         <v>332.5762668227517</v>
@@ -36911,7 +36911,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
@@ -36923,10 +36923,10 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>139.1916783992199</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>224.1012806237565</v>
       </c>
       <c r="Q30" t="n">
         <v>210.9575171831112</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414995</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817348</v>
@@ -36999,7 +36999,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449189</v>
+        <v>33.95384037009282</v>
       </c>
       <c r="K33" t="n">
         <v>306.1020700503681</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>459.724818034146</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
         <v>511.520156513384</v>
@@ -37169,7 +37169,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>363.6441766038815</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>382.0225735924332</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>170.9635782460568</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K41" t="n">
         <v>433.5251384721832</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
         <v>306.1020700503681</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>219.8962282294461</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>249.1164099475141</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641579</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>635.6527791348811</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227517</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
-        <v>229.6407113438515</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
